--- a/F1_Standings.xlsx
+++ b/F1_Standings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruiro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfb38b975c490ec7/Documents/MyTrainings/MyAntiGravityProjects/F1gameDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC298FC-EC84-4B38-BEA4-B098A7A02756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{546CA201-7B2D-4523-9F6A-9ED9E409A803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A28AE57-5FC4-44B8-9D1E-2785FF0A01AA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15665" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15725" uniqueCount="200">
   <si>
     <t>Lewis Hamilton</t>
   </si>
@@ -17098,8 +17098,8 @@
   <dimension ref="A1:N4772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1433" sqref="F1433"/>
+      <pane ySplit="1" topLeftCell="A1442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1448" sqref="A1448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57940,7 +57940,7 @@
         <v>32</v>
       </c>
       <c r="G1408" t="str">
-        <f t="shared" ref="G1408:G1427" si="0">VLOOKUP(F1408,$M$1408:$N$1427,2,FALSE)</f>
+        <f t="shared" ref="G1408:G1447" si="0">VLOOKUP(F1408,$M$1408:$N$1427,2,FALSE)</f>
         <v>Alpine</v>
       </c>
       <c r="H1408">
@@ -58641,166 +58641,606 @@
       </c>
     </row>
     <row r="1428" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1428" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1428">
+        <v>9</v>
+      </c>
       <c r="E1428" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1428" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1428" t="str">
+        <f t="shared" si="0"/>
+        <v>Alpine</v>
+      </c>
+      <c r="H1428">
+        <v>1</v>
+      </c>
+      <c r="I1428">
+        <v>25</v>
       </c>
     </row>
     <row r="1429" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1429" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1429">
+        <v>9</v>
+      </c>
       <c r="E1429" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1429" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1429" t="str">
+        <f t="shared" si="0"/>
+        <v>Ferrari</v>
+      </c>
+      <c r="H1429">
+        <v>2</v>
+      </c>
+      <c r="I1429">
+        <v>18</v>
       </c>
     </row>
     <row r="1430" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1430" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1430">
+        <v>9</v>
+      </c>
       <c r="E1430" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1430" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1430" t="str">
+        <f t="shared" si="0"/>
+        <v>Red Bull</v>
+      </c>
+      <c r="H1430">
+        <v>3</v>
+      </c>
+      <c r="I1430">
+        <v>15</v>
       </c>
     </row>
     <row r="1431" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1431" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1431">
+        <v>9</v>
+      </c>
       <c r="E1431" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1431" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1431" t="str">
+        <f t="shared" si="0"/>
+        <v>Red Bull</v>
+      </c>
+      <c r="H1431">
+        <v>4</v>
+      </c>
+      <c r="I1431">
+        <v>12</v>
       </c>
     </row>
     <row r="1432" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1432" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1432">
+        <v>9</v>
+      </c>
       <c r="E1432" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1432" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1432" t="str">
+        <f t="shared" si="0"/>
+        <v>McLaren</v>
+      </c>
+      <c r="H1432">
+        <v>5</v>
+      </c>
+      <c r="I1432">
+        <v>10</v>
       </c>
     </row>
     <row r="1433" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1433" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1433">
+        <v>9</v>
+      </c>
       <c r="E1433" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1433" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1433" t="str">
+        <f t="shared" si="0"/>
+        <v>Mercedes</v>
+      </c>
+      <c r="H1433">
+        <v>6</v>
+      </c>
+      <c r="I1433">
+        <v>8</v>
       </c>
     </row>
     <row r="1434" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1434" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1434">
+        <v>9</v>
+      </c>
       <c r="E1434" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1434" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1434" t="str">
+        <f t="shared" si="0"/>
+        <v>McLaren</v>
+      </c>
+      <c r="H1434">
+        <v>7</v>
+      </c>
+      <c r="I1434">
+        <v>6</v>
       </c>
     </row>
     <row r="1435" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1435" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1435">
+        <v>9</v>
+      </c>
       <c r="E1435" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1435" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1435" t="str">
+        <f t="shared" si="0"/>
+        <v>Aston Martin</v>
+      </c>
+      <c r="H1435">
+        <v>8</v>
+      </c>
+      <c r="I1435">
+        <v>4</v>
       </c>
     </row>
     <row r="1436" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1436" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1436">
+        <v>9</v>
+      </c>
       <c r="E1436" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1436" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1436" t="str">
+        <f t="shared" si="0"/>
+        <v>Ferrari</v>
+      </c>
+      <c r="H1436">
+        <v>9</v>
+      </c>
+      <c r="I1436">
+        <v>2</v>
       </c>
     </row>
     <row r="1437" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1437" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1437">
+        <v>9</v>
+      </c>
       <c r="E1437" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1437" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1437" t="str">
+        <f t="shared" si="0"/>
+        <v>Haas</v>
+      </c>
+      <c r="H1437">
+        <v>10</v>
+      </c>
+      <c r="I1437">
+        <v>1</v>
       </c>
     </row>
     <row r="1438" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1438" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1438">
+        <v>9</v>
+      </c>
       <c r="E1438" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1438" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1438" t="str">
+        <f t="shared" si="0"/>
+        <v>Kick Sauber</v>
+      </c>
+      <c r="H1438">
+        <v>11</v>
+      </c>
+      <c r="I1438">
+        <v>0</v>
       </c>
     </row>
     <row r="1439" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1439" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1439">
+        <v>9</v>
+      </c>
       <c r="E1439" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1439" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1439" t="str">
+        <f t="shared" si="0"/>
+        <v>Kick Sauber</v>
+      </c>
+      <c r="H1439">
+        <v>12</v>
+      </c>
+      <c r="I1439">
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1440" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1440">
+        <v>9</v>
+      </c>
       <c r="E1440" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1440" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1441" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1440" t="str">
+        <f t="shared" si="0"/>
+        <v>Williams</v>
+      </c>
+      <c r="H1440">
+        <v>13</v>
+      </c>
+      <c r="I1440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1441" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1441">
+        <v>9</v>
+      </c>
       <c r="E1441" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1441" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1442" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1441" t="str">
+        <f t="shared" si="0"/>
+        <v>Williams</v>
+      </c>
+      <c r="H1441">
+        <v>14</v>
+      </c>
+      <c r="I1441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1442" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1442">
+        <v>9</v>
+      </c>
       <c r="E1442" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1442" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1443" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1442" t="str">
+        <f t="shared" si="0"/>
+        <v>Alpine</v>
+      </c>
+      <c r="H1442">
+        <v>15</v>
+      </c>
+      <c r="I1442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1443" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1443">
+        <v>9</v>
+      </c>
       <c r="E1443" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1443" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1444" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1443" t="str">
+        <f t="shared" si="0"/>
+        <v>Racing Bulls</v>
+      </c>
+      <c r="H1443">
+        <v>16</v>
+      </c>
+      <c r="I1443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1444" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1444">
+        <v>9</v>
+      </c>
       <c r="E1444" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1444" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1445" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1444" t="str">
+        <f t="shared" si="0"/>
+        <v>Haas</v>
+      </c>
+      <c r="H1444">
+        <v>17</v>
+      </c>
+      <c r="I1444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1445" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1445">
+        <v>9</v>
+      </c>
       <c r="E1445" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1445" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1446" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1445" t="str">
+        <f t="shared" si="0"/>
+        <v>Racing Bulls</v>
+      </c>
+      <c r="H1445">
+        <v>18</v>
+      </c>
+      <c r="I1445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1446" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1446">
+        <v>9</v>
+      </c>
       <c r="E1446" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1446" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1447" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1446" t="str">
+        <f t="shared" si="0"/>
+        <v>Aston Martin</v>
+      </c>
+      <c r="H1446">
+        <v>19</v>
+      </c>
+      <c r="I1446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1447" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1447">
+        <v>9</v>
+      </c>
       <c r="E1447" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1447" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1448" spans="5:9" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1447" t="str">
+        <f t="shared" si="0"/>
+        <v>Mercedes</v>
+      </c>
+      <c r="H1447">
+        <v>20</v>
+      </c>
+      <c r="I1447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1448" t="s">
         <v>37</v>
       </c>
@@ -58808,7 +59248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1449" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1449" t="s">
         <v>37</v>
       </c>
@@ -58816,7 +59256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1450" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1450" t="s">
         <v>37</v>
       </c>
@@ -58824,7 +59264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1451" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1451" t="s">
         <v>37</v>
       </c>
@@ -58832,7 +59272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1452" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1452" t="s">
         <v>37</v>
       </c>
@@ -58840,7 +59280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1453" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1453" t="s">
         <v>37</v>
       </c>
@@ -58848,7 +59288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1454" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1454" t="s">
         <v>37</v>
       </c>
@@ -58856,7 +59296,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1455" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1455" t="s">
         <v>37</v>
       </c>
@@ -58864,7 +59304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1456" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E1456" t="s">
         <v>37</v>
       </c>
@@ -85416,7 +85856,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -85707,7 +86147,7 @@
         <v>Circuit Gilles Villeneuve</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K10" t="s">
         <v>119</v>
